--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/17 Aria Khal/Aria_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P1/Design & XL File/17 Aria Khal/Aria_khal_Dataprep_Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Raw_Cross_Section_Data!#REF!</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="129">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -87,9 +86,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>DC8-0000</t>
   </si>
   <si>
     <t>GL</t>
@@ -247,12 +243,6 @@
     <t>Office of The Superintending Engineer,Design Circle-5</t>
   </si>
   <si>
-    <t>(Md.Mostofa Kamal),AE</t>
-  </si>
-  <si>
-    <t>(Kamrul Hasan),EE</t>
-  </si>
-  <si>
     <t>(Jakaria Pervez),SE</t>
   </si>
   <si>
@@ -378,13 +368,7 @@
     <t>m</t>
   </si>
   <si>
-    <t>Dhulorujir khal</t>
-  </si>
-  <si>
     <t>DLK</t>
-  </si>
-  <si>
-    <t>Re-excavation of Dhulorujir Khal from km. 0.000 to km. 0.950 in polder -2  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
   </si>
   <si>
     <t>Cross Section for Re-excavation of Aria khal  from km. 0.000 to km. 0.605 in polder -2 in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025.</t>
@@ -436,6 +420,18 @@
   </si>
   <si>
     <t>Aria khal</t>
+  </si>
+  <si>
+    <t>DC5-0000</t>
+  </si>
+  <si>
+    <t>Re-excavation of Aria Khal from km. 0.000 to km. 0.605 in polder -2  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
+  </si>
+  <si>
+    <t>(Md.Mostafa Kamal),AE</t>
+  </si>
+  <si>
+    <t>(MD. Kamrul Hasan),EE</t>
   </si>
 </sst>
 </file>
@@ -741,18 +737,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,6 +767,18 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -868,7 +864,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$5:$B$20</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -925,7 +921,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$5:$C$20</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1003,12 +999,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$5:$I$20</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$5:$I$20</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$5:$J$20</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$5:$J$20</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1026,11 +1022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208272000"/>
-        <c:axId val="239346048"/>
+        <c:axId val="241824896"/>
+        <c:axId val="241826432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208272000"/>
+        <c:axId val="241824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1076,12 +1072,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239346048"/>
+        <c:crossAx val="241826432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239346048"/>
+        <c:axId val="241826432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208272000"/>
+        <c:crossAx val="241824896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,7 +1222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$24:$B$39</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$24:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1280,7 +1276,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$24:$C$39</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$24:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1355,12 +1351,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$25:$I$39</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$25:$I$39</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$25:$J$39</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$25:$J$39</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1378,11 +1374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240195072"/>
-        <c:axId val="240196608"/>
+        <c:axId val="242163072"/>
+        <c:axId val="242168960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240195072"/>
+        <c:axId val="242163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1428,12 +1424,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240196608"/>
+        <c:crossAx val="242168960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240196608"/>
+        <c:axId val="242168960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240195072"/>
+        <c:crossAx val="242163072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1578,7 +1574,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$42:$B$62</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$42:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1629,7 +1625,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$42:$C$62</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$42:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1701,12 +1697,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$42:$I$62</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$42:$I$62</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$42:$J$62</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$42:$J$62</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1724,11 +1720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240411776"/>
-        <c:axId val="240413312"/>
+        <c:axId val="242199168"/>
+        <c:axId val="242200960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240411776"/>
+        <c:axId val="242199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1774,12 +1770,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240413312"/>
+        <c:crossAx val="242200960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240413312"/>
+        <c:axId val="242200960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240411776"/>
+        <c:crossAx val="242199168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1924,7 +1920,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$65:$B$79</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$65:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1975,7 +1971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$65:$C$79</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$65:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2047,12 +2043,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$65:$I$79</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$65:$I$79</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$65:$J$79</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$65:$J$79</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2070,11 +2066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240528384"/>
-        <c:axId val="240542464"/>
+        <c:axId val="243487104"/>
+        <c:axId val="243488640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240528384"/>
+        <c:axId val="243487104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2120,12 +2116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240542464"/>
+        <c:crossAx val="243488640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240542464"/>
+        <c:axId val="243488640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240528384"/>
+        <c:crossAx val="243487104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2270,7 +2266,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$81:$B$95</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$81:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2321,7 +2317,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$81:$C$95</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$81:$C$95</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2393,12 +2389,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$82:$I$95</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$82:$I$95</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$82:$J$95</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$82:$J$95</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2416,11 +2412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="241801088"/>
-        <c:axId val="241802624"/>
+        <c:axId val="243571328"/>
+        <c:axId val="243589504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="241801088"/>
+        <c:axId val="243571328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2466,12 +2462,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241802624"/>
+        <c:crossAx val="243589504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="241802624"/>
+        <c:axId val="243589504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241801088"/>
+        <c:crossAx val="243571328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2616,7 +2612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$97:$B$111</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$97:$B$111</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2667,7 +2663,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$97:$C$111</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$97:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2739,12 +2735,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$97:$I$111</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$97:$I$111</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$97:$J$111</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$97:$J$111</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2762,11 +2758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244572928"/>
-        <c:axId val="244574464"/>
+        <c:axId val="246842496"/>
+        <c:axId val="246844032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244572928"/>
+        <c:axId val="246842496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2812,12 +2808,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244574464"/>
+        <c:crossAx val="246844032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244574464"/>
+        <c:axId val="246844032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244572928"/>
+        <c:crossAx val="246842496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2962,7 +2958,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$113:$B$127</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$113:$B$127</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3013,7 +3009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$113:$C$127</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$113:$C$127</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3085,12 +3081,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$114:$I$127</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$114:$I$127</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$114:$J$127</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$114:$J$127</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3108,11 +3104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245374336"/>
-        <c:axId val="245494912"/>
+        <c:axId val="246869376"/>
+        <c:axId val="246871168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245374336"/>
+        <c:axId val="246869376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3158,12 +3154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245494912"/>
+        <c:crossAx val="246871168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245494912"/>
+        <c:axId val="246871168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245374336"/>
+        <c:crossAx val="246869376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3308,7 +3304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$130:$B$144</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$130:$B$144</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3359,7 +3355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$130:$C$144</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$130:$C$144</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3431,12 +3427,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$130:$I$144</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$130:$I$144</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$130:$J$144</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$130:$J$144</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3454,11 +3450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245512448"/>
-        <c:axId val="246820864"/>
+        <c:axId val="246908800"/>
+        <c:axId val="246910336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245512448"/>
+        <c:axId val="246908800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3504,12 +3500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246820864"/>
+        <c:crossAx val="246910336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246820864"/>
+        <c:axId val="246910336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245512448"/>
+        <c:crossAx val="246908800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3654,7 +3650,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$B$147:$B$165</c:f>
+              <c:f>'[1]Aria khal (Data)'!$B$147:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3699,7 +3695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$C$147:$C$165</c:f>
+              <c:f>'[1]Aria khal (Data)'!$C$147:$C$165</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3765,12 +3761,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$I$147:$I$165</c:f>
+              <c:f>'[1]Aria khal (Data)'!$I$147:$I$165</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[2]Aria khal (Data)'!$J$147:$J$165</c:f>
+              <c:f>'[1]Aria khal (Data)'!$J$147:$J$165</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -3788,11 +3784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247002240"/>
-        <c:axId val="247003776"/>
+        <c:axId val="246952320"/>
+        <c:axId val="246953856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247002240"/>
+        <c:axId val="246952320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3838,12 +3834,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247003776"/>
+        <c:crossAx val="246953856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247003776"/>
+        <c:axId val="246953856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247002240"/>
+        <c:crossAx val="246952320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3962,7 +3958,7 @@
         <xdr:cNvPr id="13" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +3996,7 @@
         <xdr:cNvPr id="14" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53EBD8AF-9F1A-4091-BB8C-CCDEE2A6A6ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4034,7 @@
         <xdr:cNvPr id="15" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12B0A20F-C3C6-4F50-A940-9119C9C3D095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4076,7 +4072,7 @@
         <xdr:cNvPr id="16" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{860ED641-517A-4279-8B9F-F1C672642510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,7 +4110,7 @@
         <xdr:cNvPr id="17" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDCB6569-0379-4F60-99CA-0643F1353EBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4152,7 +4148,7 @@
         <xdr:cNvPr id="18" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144F283E-7B60-4404-B26B-9E0981B558A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4186,7 @@
         <xdr:cNvPr id="19" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17F16DEB-454F-4AFC-A2C4-5715A988E77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4228,7 +4224,7 @@
         <xdr:cNvPr id="20" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CA5868A-AE9D-48F6-877C-6668D15DE49D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4266,7 +4262,7 @@
         <xdr:cNvPr id="21" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE533EB4-A2D8-4765-8B62-95B7F50F332D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4290,2038 +4286,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Long section Dhulorujir khal"/>
-      <sheetName val="Offtake khal"/>
-      <sheetName val="Outfall khal"/>
-      <sheetName val="Dhulorujir khal"/>
-      <sheetName val="Abstract of earth"/>
-      <sheetName val="Dhulorujir khal (data)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>1.097</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>5</v>
-          </cell>
-          <cell r="C6">
-            <v>1.0840000000000001</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>1.097</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>10</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0720000000000001</v>
-          </cell>
-          <cell r="I7">
-            <v>5</v>
-          </cell>
-          <cell r="J7">
-            <v>1.0840000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>12</v>
-          </cell>
-          <cell r="C8">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I8">
-            <v>10</v>
-          </cell>
-          <cell r="J8">
-            <v>1.0720000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>14</v>
-          </cell>
-          <cell r="C9">
-            <v>-0.70299999999999996</v>
-          </cell>
-          <cell r="I9">
-            <v>12</v>
-          </cell>
-          <cell r="J9">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>16</v>
-          </cell>
-          <cell r="C10">
-            <v>-1.145</v>
-          </cell>
-          <cell r="I10">
-            <v>14.9955</v>
-          </cell>
-          <cell r="J10">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>18</v>
-          </cell>
-          <cell r="C11">
-            <v>-1.252</v>
-          </cell>
-          <cell r="I11">
-            <v>17.4955</v>
-          </cell>
-          <cell r="J11">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>20</v>
-          </cell>
-          <cell r="C12">
-            <v>-1.1479999999999999</v>
-          </cell>
-          <cell r="I12">
-            <v>19.9955</v>
-          </cell>
-          <cell r="J12">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>22</v>
-          </cell>
-          <cell r="C13">
-            <v>-0.66100000000000003</v>
-          </cell>
-          <cell r="I13">
-            <v>21.945499999999999</v>
-          </cell>
-          <cell r="J13">
-            <v>-0.7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>24</v>
-          </cell>
-          <cell r="C14">
-            <v>0.30199999999999999</v>
-          </cell>
-          <cell r="I14">
-            <v>22</v>
-          </cell>
-          <cell r="J14">
-            <v>-0.66100000000000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>26</v>
-          </cell>
-          <cell r="C15">
-            <v>1.2350000000000001</v>
-          </cell>
-          <cell r="I15">
-            <v>24</v>
-          </cell>
-          <cell r="J15">
-            <v>0.30199999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>30</v>
-          </cell>
-          <cell r="C16">
-            <v>1.2290000000000001</v>
-          </cell>
-          <cell r="I16">
-            <v>26</v>
-          </cell>
-          <cell r="J16">
-            <v>1.2350000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>35</v>
-          </cell>
-          <cell r="C17">
-            <v>1.222</v>
-          </cell>
-          <cell r="I17">
-            <v>30</v>
-          </cell>
-          <cell r="J17">
-            <v>1.2290000000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>40</v>
-          </cell>
-          <cell r="C18">
-            <v>1.2090000000000001</v>
-          </cell>
-          <cell r="I18">
-            <v>35</v>
-          </cell>
-          <cell r="J18">
-            <v>1.222</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0.755</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>5</v>
-          </cell>
-          <cell r="C23">
-            <v>0.748</v>
-          </cell>
-          <cell r="I23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0.755</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>10</v>
-          </cell>
-          <cell r="C24">
-            <v>0.73499999999999999</v>
-          </cell>
-          <cell r="I24">
-            <v>5</v>
-          </cell>
-          <cell r="J24">
-            <v>0.748</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>11</v>
-          </cell>
-          <cell r="C25">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="I25">
-            <v>10</v>
-          </cell>
-          <cell r="J25">
-            <v>0.73499999999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>13</v>
-          </cell>
-          <cell r="C26">
-            <v>-0.29099999999999998</v>
-          </cell>
-          <cell r="I26">
-            <v>11</v>
-          </cell>
-          <cell r="J26">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>15</v>
-          </cell>
-          <cell r="C27">
-            <v>-0.52500000000000002</v>
-          </cell>
-          <cell r="I27">
-            <v>13</v>
-          </cell>
-          <cell r="J27">
-            <v>-0.29099999999999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>17</v>
-          </cell>
-          <cell r="C28">
-            <v>-0.75</v>
-          </cell>
-          <cell r="I28">
-            <v>15</v>
-          </cell>
-          <cell r="J28">
-            <v>-0.52500000000000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>19</v>
-          </cell>
-          <cell r="C29">
-            <v>-0.85699999999999998</v>
-          </cell>
-          <cell r="I29">
-            <v>17.212499999999999</v>
-          </cell>
-          <cell r="J29">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>21</v>
-          </cell>
-          <cell r="C30">
-            <v>-0.752</v>
-          </cell>
-          <cell r="I30">
-            <v>19.712499999999999</v>
-          </cell>
-          <cell r="J30">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>23</v>
-          </cell>
-          <cell r="C31">
-            <v>-0.53400000000000003</v>
-          </cell>
-          <cell r="I31">
-            <v>22.212499999999999</v>
-          </cell>
-          <cell r="J31">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>25</v>
-          </cell>
-          <cell r="C32">
-            <v>-0.28899999999999998</v>
-          </cell>
-          <cell r="I32">
-            <v>24.762499999999999</v>
-          </cell>
-          <cell r="J32">
-            <v>-0.3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>27</v>
-          </cell>
-          <cell r="C33">
-            <v>0.10199999999999999</v>
-          </cell>
-          <cell r="I33">
-            <v>25</v>
-          </cell>
-          <cell r="J33">
-            <v>-0.28899999999999998</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>28</v>
-          </cell>
-          <cell r="C34">
-            <v>1.0089999999999999</v>
-          </cell>
-          <cell r="I34">
-            <v>27</v>
-          </cell>
-          <cell r="J34">
-            <v>0.10199999999999999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>33</v>
-          </cell>
-          <cell r="C35">
-            <v>0.98799999999999999</v>
-          </cell>
-          <cell r="I35">
-            <v>28</v>
-          </cell>
-          <cell r="J35">
-            <v>1.0089999999999999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>38</v>
-          </cell>
-          <cell r="C36">
-            <v>0.98299999999999998</v>
-          </cell>
-          <cell r="I36">
-            <v>33</v>
-          </cell>
-          <cell r="J36">
-            <v>0.98799999999999999</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>43</v>
-          </cell>
-          <cell r="C37">
-            <v>0.97599999999999998</v>
-          </cell>
-          <cell r="I37">
-            <v>38</v>
-          </cell>
-          <cell r="J37">
-            <v>0.98299999999999998</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-          <cell r="C41">
-            <v>0.69299999999999995</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>5</v>
-          </cell>
-          <cell r="C42">
-            <v>0.68400000000000005</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>10</v>
-          </cell>
-          <cell r="C43">
-            <v>0.67200000000000004</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>11</v>
-          </cell>
-          <cell r="C44">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>13</v>
-          </cell>
-          <cell r="C45">
-            <v>-0.19600000000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>15</v>
-          </cell>
-          <cell r="C46">
-            <v>-0.38700000000000001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>17</v>
-          </cell>
-          <cell r="C47">
-            <v>-0.4698</v>
-          </cell>
-          <cell r="I47">
-            <v>0</v>
-          </cell>
-          <cell r="J47">
-            <v>0.69299999999999995</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>19</v>
-          </cell>
-          <cell r="C48">
-            <v>-0.59799999999999998</v>
-          </cell>
-          <cell r="I48">
-            <v>5</v>
-          </cell>
-          <cell r="J48">
-            <v>0.68400000000000005</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>21</v>
-          </cell>
-          <cell r="C49">
-            <v>-0.497</v>
-          </cell>
-          <cell r="I49">
-            <v>10</v>
-          </cell>
-          <cell r="J49">
-            <v>0.67200000000000004</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>23</v>
-          </cell>
-          <cell r="C50">
-            <v>-0.38200000000000001</v>
-          </cell>
-          <cell r="I50">
-            <v>11</v>
-          </cell>
-          <cell r="J50">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>25</v>
-          </cell>
-          <cell r="C51">
-            <v>-0.20200000000000001</v>
-          </cell>
-          <cell r="I51">
-            <v>13</v>
-          </cell>
-          <cell r="J51">
-            <v>-0.19600000000000001</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>27</v>
-          </cell>
-          <cell r="C52">
-            <v>9.9000000000000005E-2</v>
-          </cell>
-          <cell r="I52">
-            <v>15.706</v>
-          </cell>
-          <cell r="J52">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>28</v>
-          </cell>
-          <cell r="C53">
-            <v>0.77300000000000002</v>
-          </cell>
-          <cell r="I53">
-            <v>18.206</v>
-          </cell>
-          <cell r="J53">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>33</v>
-          </cell>
-          <cell r="C54">
-            <v>0.78500000000000003</v>
-          </cell>
-          <cell r="I54">
-            <v>20.706</v>
-          </cell>
-          <cell r="J54">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>38</v>
-          </cell>
-          <cell r="C55">
-            <v>0.79800000000000004</v>
-          </cell>
-          <cell r="I55">
-            <v>23.180999999999997</v>
-          </cell>
-          <cell r="J55">
-            <v>-0.35</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>43</v>
-          </cell>
-          <cell r="C56">
-            <v>0.80400000000000005</v>
-          </cell>
-          <cell r="I56">
-            <v>25</v>
-          </cell>
-          <cell r="J56">
-            <v>-0.20200000000000001</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>27</v>
-          </cell>
-          <cell r="J57">
-            <v>9.9000000000000005E-2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58">
-            <v>28</v>
-          </cell>
-          <cell r="J58">
-            <v>0.77300000000000002</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59">
-            <v>33</v>
-          </cell>
-          <cell r="J59">
-            <v>0.78500000000000003</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60">
-            <v>38</v>
-          </cell>
-          <cell r="J60">
-            <v>0.79800000000000004</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61">
-            <v>43</v>
-          </cell>
-          <cell r="J61">
-            <v>0.80400000000000005</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>0</v>
-          </cell>
-          <cell r="C65">
-            <v>-0.52500000000000002</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>2</v>
-          </cell>
-          <cell r="C66">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>5</v>
-          </cell>
-          <cell r="C67">
-            <v>1.8640000000000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>6</v>
-          </cell>
-          <cell r="C68">
-            <v>1.853</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>7</v>
-          </cell>
-          <cell r="C69">
-            <v>0.84099999999999997</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>9</v>
-          </cell>
-          <cell r="C70">
-            <v>0.17199999999999999</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>11</v>
-          </cell>
-          <cell r="C71">
-            <v>-0.33500000000000002</v>
-          </cell>
-          <cell r="I71">
-            <v>0</v>
-          </cell>
-          <cell r="J71">
-            <v>-0.52500000000000002</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>13</v>
-          </cell>
-          <cell r="C72">
-            <v>-0.64700000000000002</v>
-          </cell>
-          <cell r="I72">
-            <v>2</v>
-          </cell>
-          <cell r="J72">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>15</v>
-          </cell>
-          <cell r="C73">
-            <v>-0.749</v>
-          </cell>
-          <cell r="I73">
-            <v>5</v>
-          </cell>
-          <cell r="J73">
-            <v>1.8640000000000001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>17</v>
-          </cell>
-          <cell r="C74">
-            <v>-0.64800000000000002</v>
-          </cell>
-          <cell r="I74">
-            <v>6</v>
-          </cell>
-          <cell r="J74">
-            <v>1.853</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>19</v>
-          </cell>
-          <cell r="C75">
-            <v>-0.34799999999999998</v>
-          </cell>
-          <cell r="I75">
-            <v>7</v>
-          </cell>
-          <cell r="J75">
-            <v>0.84099999999999997</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>21</v>
-          </cell>
-          <cell r="C76">
-            <v>-2.7E-2</v>
-          </cell>
-          <cell r="I76">
-            <v>9</v>
-          </cell>
-          <cell r="J76">
-            <v>0.17199999999999999</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>23</v>
-          </cell>
-          <cell r="C77">
-            <v>0.46600000000000003</v>
-          </cell>
-          <cell r="I77">
-            <v>12.257999999999999</v>
-          </cell>
-          <cell r="J77">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>24</v>
-          </cell>
-          <cell r="C78">
-            <v>0.95199999999999996</v>
-          </cell>
-          <cell r="I78">
-            <v>14.757999999999999</v>
-          </cell>
-          <cell r="J78">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>30</v>
-          </cell>
-          <cell r="C79">
-            <v>0.94</v>
-          </cell>
-          <cell r="I79">
-            <v>17.257999999999999</v>
-          </cell>
-          <cell r="J79">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>35</v>
-          </cell>
-          <cell r="C80">
-            <v>0.93100000000000005</v>
-          </cell>
-          <cell r="I80">
-            <v>20.107999999999997</v>
-          </cell>
-          <cell r="J80">
-            <v>-0.1</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>0</v>
-          </cell>
-          <cell r="C83">
-            <v>0.872</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>5</v>
-          </cell>
-          <cell r="C84">
-            <v>0.86499999999999999</v>
-          </cell>
-          <cell r="I84">
-            <v>5</v>
-          </cell>
-          <cell r="J84">
-            <v>0.86499999999999999</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>10</v>
-          </cell>
-          <cell r="C85">
-            <v>0.85299999999999998</v>
-          </cell>
-          <cell r="I85">
-            <v>10</v>
-          </cell>
-          <cell r="J85">
-            <v>0.85299999999999998</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>12</v>
-          </cell>
-          <cell r="C86">
-            <v>0.17</v>
-          </cell>
-          <cell r="I86">
-            <v>11</v>
-          </cell>
-          <cell r="J86">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>14</v>
-          </cell>
-          <cell r="C87">
-            <v>-0.23699999999999999</v>
-          </cell>
-          <cell r="I87">
-            <v>14.75</v>
-          </cell>
-          <cell r="J87">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>17</v>
-          </cell>
-          <cell r="C88">
-            <v>-0.33300000000000002</v>
-          </cell>
-          <cell r="I88">
-            <v>17.25</v>
-          </cell>
-          <cell r="J88">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>20</v>
-          </cell>
-          <cell r="C89">
-            <v>-0.22800000000000001</v>
-          </cell>
-          <cell r="I89">
-            <v>19.75</v>
-          </cell>
-          <cell r="J89">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>22</v>
-          </cell>
-          <cell r="C90">
-            <v>0.16600000000000001</v>
-          </cell>
-          <cell r="I90">
-            <v>24.215499999999999</v>
-          </cell>
-          <cell r="J90">
-            <v>0.97699999999999998</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>24</v>
-          </cell>
-          <cell r="C91">
-            <v>0.97699999999999998</v>
-          </cell>
-          <cell r="I91">
-            <v>30</v>
-          </cell>
-          <cell r="J91">
-            <v>0.96499999999999997</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>30</v>
-          </cell>
-          <cell r="C92">
-            <v>0.96499999999999997</v>
-          </cell>
-          <cell r="I92">
-            <v>35</v>
-          </cell>
-          <cell r="J92">
-            <v>0.98299999999999998</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>35</v>
-          </cell>
-          <cell r="C93">
-            <v>0.98299999999999998</v>
-          </cell>
-          <cell r="I93">
-            <v>40</v>
-          </cell>
-          <cell r="J93">
-            <v>0.99199999999999999</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>40</v>
-          </cell>
-          <cell r="C94">
-            <v>0.99199999999999999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>0</v>
-          </cell>
-          <cell r="C97">
-            <v>0.91900000000000004</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>5</v>
-          </cell>
-          <cell r="C98">
-            <v>0.91400000000000003</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>10</v>
-          </cell>
-          <cell r="C99">
-            <v>0.90500000000000003</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>12</v>
-          </cell>
-          <cell r="C100">
-            <v>0.27900000000000003</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>14</v>
-          </cell>
-          <cell r="C101">
-            <v>-0.115</v>
-          </cell>
-          <cell r="I101">
-            <v>0</v>
-          </cell>
-          <cell r="J101">
-            <v>0.91900000000000004</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>16</v>
-          </cell>
-          <cell r="C102">
-            <v>-0.42199999999999999</v>
-          </cell>
-          <cell r="I102">
-            <v>5</v>
-          </cell>
-          <cell r="J102">
-            <v>0.91400000000000003</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>18</v>
-          </cell>
-          <cell r="C103">
-            <v>-0.53400000000000003</v>
-          </cell>
-          <cell r="I103">
-            <v>10</v>
-          </cell>
-          <cell r="J103">
-            <v>0.90500000000000003</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>20</v>
-          </cell>
-          <cell r="C104">
-            <v>-0.43099999999999999</v>
-          </cell>
-          <cell r="I104">
-            <v>12</v>
-          </cell>
-          <cell r="J104">
-            <v>0.27900000000000003</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>22</v>
-          </cell>
-          <cell r="C105">
-            <v>-0.122</v>
-          </cell>
-          <cell r="I105">
-            <v>15.4185</v>
-          </cell>
-          <cell r="J105">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>24</v>
-          </cell>
-          <cell r="C106">
-            <v>0.25800000000000001</v>
-          </cell>
-          <cell r="I106">
-            <v>17.918500000000002</v>
-          </cell>
-          <cell r="J106">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>26</v>
-          </cell>
-          <cell r="C107">
-            <v>1.08</v>
-          </cell>
-          <cell r="I107">
-            <v>20.418500000000002</v>
-          </cell>
-          <cell r="J107">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>30</v>
-          </cell>
-          <cell r="C108">
-            <v>1.069</v>
-          </cell>
-          <cell r="I108">
-            <v>23.718500000000002</v>
-          </cell>
-          <cell r="J108">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>35</v>
-          </cell>
-          <cell r="C109">
-            <v>1.0640000000000001</v>
-          </cell>
-          <cell r="I109">
-            <v>24</v>
-          </cell>
-          <cell r="J109">
-            <v>0.25800000000000001</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>40</v>
-          </cell>
-          <cell r="C110">
-            <v>1.056</v>
-          </cell>
-          <cell r="I110">
-            <v>26</v>
-          </cell>
-          <cell r="J110">
-            <v>1.08</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>0</v>
-          </cell>
-          <cell r="C113">
-            <v>0.88500000000000001</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>5</v>
-          </cell>
-          <cell r="C114">
-            <v>0.879</v>
-          </cell>
-          <cell r="I114">
-            <v>5</v>
-          </cell>
-          <cell r="J114">
-            <v>0.879</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>10</v>
-          </cell>
-          <cell r="C115">
-            <v>0.874</v>
-          </cell>
-          <cell r="I115">
-            <v>10</v>
-          </cell>
-          <cell r="J115">
-            <v>0.874</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>11</v>
-          </cell>
-          <cell r="C116">
-            <v>0.16900000000000001</v>
-          </cell>
-          <cell r="I116">
-            <v>11</v>
-          </cell>
-          <cell r="J116">
-            <v>0.16900000000000001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>13</v>
-          </cell>
-          <cell r="C117">
-            <v>-0.32200000000000001</v>
-          </cell>
-          <cell r="I117">
-            <v>11.5</v>
-          </cell>
-          <cell r="J117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>15</v>
-          </cell>
-          <cell r="C118">
-            <v>-0.622</v>
-          </cell>
-          <cell r="I118">
-            <v>14.5</v>
-          </cell>
-          <cell r="J118">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>17</v>
-          </cell>
-          <cell r="C119">
-            <v>-0.72599999999999998</v>
-          </cell>
-          <cell r="I119">
-            <v>17</v>
-          </cell>
-          <cell r="J119">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>19</v>
-          </cell>
-          <cell r="C120">
-            <v>-0.621</v>
-          </cell>
-          <cell r="I120">
-            <v>19.5</v>
-          </cell>
-          <cell r="J120">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>21</v>
-          </cell>
-          <cell r="C121">
-            <v>-0.31</v>
-          </cell>
-          <cell r="I121">
-            <v>22.574999999999999</v>
-          </cell>
-          <cell r="J121">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>23</v>
-          </cell>
-          <cell r="C122">
-            <v>0.153</v>
-          </cell>
-          <cell r="I122">
-            <v>23</v>
-          </cell>
-          <cell r="J122">
-            <v>0.153</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>24</v>
-          </cell>
-          <cell r="C123">
-            <v>1.8740000000000001</v>
-          </cell>
-          <cell r="I123">
-            <v>24</v>
-          </cell>
-          <cell r="J123">
-            <v>1.8740000000000001</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>25</v>
-          </cell>
-          <cell r="C124">
-            <v>1.865</v>
-          </cell>
-          <cell r="I124">
-            <v>25</v>
-          </cell>
-          <cell r="J124">
-            <v>1.865</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>26</v>
-          </cell>
-          <cell r="C125">
-            <v>0.47399999999999998</v>
-          </cell>
-          <cell r="I125">
-            <v>26</v>
-          </cell>
-          <cell r="J125">
-            <v>0.47399999999999998</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>28</v>
-          </cell>
-          <cell r="C126">
-            <v>-0.34599999999999997</v>
-          </cell>
-          <cell r="I126">
-            <v>28</v>
-          </cell>
-          <cell r="J126">
-            <v>-0.34599999999999997</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>0</v>
-          </cell>
-          <cell r="C129">
-            <v>0.627</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>5</v>
-          </cell>
-          <cell r="C130">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>10</v>
-          </cell>
-          <cell r="C131">
-            <v>0.60799999999999998</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>11</v>
-          </cell>
-          <cell r="C132">
-            <v>-0.18</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>13</v>
-          </cell>
-          <cell r="C133">
-            <v>-0.56799999999999995</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>15</v>
-          </cell>
-          <cell r="C134">
-            <v>-0.77100000000000002</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>17</v>
-          </cell>
-          <cell r="C135">
-            <v>-0.873</v>
-          </cell>
-          <cell r="I135">
-            <v>0</v>
-          </cell>
-          <cell r="J135">
-            <v>0.627</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>19</v>
-          </cell>
-          <cell r="C136">
-            <v>-0.76800000000000002</v>
-          </cell>
-          <cell r="I136">
-            <v>5</v>
-          </cell>
-          <cell r="J136">
-            <v>0.621</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>21</v>
-          </cell>
-          <cell r="C137">
-            <v>-0.56200000000000006</v>
-          </cell>
-          <cell r="I137">
-            <v>10</v>
-          </cell>
-          <cell r="J137">
-            <v>0.60799999999999998</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>23</v>
-          </cell>
-          <cell r="C138">
-            <v>0.23200000000000001</v>
-          </cell>
-          <cell r="I138">
-            <v>11</v>
-          </cell>
-          <cell r="J138">
-            <v>-0.18</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>24</v>
-          </cell>
-          <cell r="C139">
-            <v>1.62</v>
-          </cell>
-          <cell r="I139">
-            <v>13.73</v>
-          </cell>
-          <cell r="J139">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>25</v>
-          </cell>
-          <cell r="C140">
-            <v>1.611</v>
-          </cell>
-          <cell r="I140">
-            <v>16.23</v>
-          </cell>
-          <cell r="J140">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>26</v>
-          </cell>
-          <cell r="C141">
-            <v>0.60740000000000005</v>
-          </cell>
-          <cell r="I141">
-            <v>18.73</v>
-          </cell>
-          <cell r="J141">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>28</v>
-          </cell>
-          <cell r="C142">
-            <v>-7.0999999999999994E-2</v>
-          </cell>
-          <cell r="I142">
-            <v>20.755000000000003</v>
-          </cell>
-          <cell r="J142">
-            <v>-0.65</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="I143">
-            <v>21</v>
-          </cell>
-          <cell r="J143">
-            <v>-0.56200000000000006</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>0</v>
-          </cell>
-          <cell r="C146">
-            <v>0.66800000000000004</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>5</v>
-          </cell>
-          <cell r="C147">
-            <v>0.68</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>10</v>
-          </cell>
-          <cell r="C148">
-            <v>0.68500000000000005</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>11</v>
-          </cell>
-          <cell r="C149">
-            <v>-0.38</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>12</v>
-          </cell>
-          <cell r="C150">
-            <v>-0.56999999999999995</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>14</v>
-          </cell>
-          <cell r="C151">
-            <v>-0.70199999999999996</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>16</v>
-          </cell>
-          <cell r="C152">
-            <v>-0.80300000000000005</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>18</v>
-          </cell>
-          <cell r="C153">
-            <v>-0.69699999999999995</v>
-          </cell>
-          <cell r="I153">
-            <v>0</v>
-          </cell>
-          <cell r="J153">
-            <v>0.66800000000000004</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>20</v>
-          </cell>
-          <cell r="C154">
-            <v>-0.56299999999999994</v>
-          </cell>
-          <cell r="I154">
-            <v>5</v>
-          </cell>
-          <cell r="J154">
-            <v>0.68</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>21</v>
-          </cell>
-          <cell r="C155">
-            <v>-7.4999999999999997E-2</v>
-          </cell>
-          <cell r="I155">
-            <v>8.6999999999999993</v>
-          </cell>
-          <cell r="J155">
-            <v>0.68500000000000005</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>22</v>
-          </cell>
-          <cell r="C156">
-            <v>0.89700000000000002</v>
-          </cell>
-          <cell r="I156">
-            <v>12.727499999999999</v>
-          </cell>
-          <cell r="J156">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>25</v>
-          </cell>
-          <cell r="C157">
-            <v>0.92100000000000004</v>
-          </cell>
-          <cell r="I157">
-            <v>15.227499999999999</v>
-          </cell>
-          <cell r="J157">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>30</v>
-          </cell>
-          <cell r="C158">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="I158">
-            <v>17.727499999999999</v>
-          </cell>
-          <cell r="J158">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>35</v>
-          </cell>
-          <cell r="C159">
-            <v>0.93700000000000006</v>
-          </cell>
-          <cell r="I159">
-            <v>19.752499999999998</v>
-          </cell>
-          <cell r="J159">
-            <v>-0.65</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="I160">
-            <v>20</v>
-          </cell>
-          <cell r="J160">
-            <v>-0.56299999999999994</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>0</v>
-          </cell>
-          <cell r="C162">
-            <v>0.67100000000000004</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>5</v>
-          </cell>
-          <cell r="C163">
-            <v>0.66600000000000004</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>10</v>
-          </cell>
-          <cell r="C164">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>11</v>
-          </cell>
-          <cell r="C165">
-            <v>0.217</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>12</v>
-          </cell>
-          <cell r="C166">
-            <v>-0.19900000000000001</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>13</v>
-          </cell>
-          <cell r="C167">
-            <v>-0.42799999999999999</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>15</v>
-          </cell>
-          <cell r="C168">
-            <v>-0.61899999999999999</v>
-          </cell>
-          <cell r="I168">
-            <v>0</v>
-          </cell>
-          <cell r="J168">
-            <v>0.67100000000000004</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>16</v>
-          </cell>
-          <cell r="C169">
-            <v>-0.70199999999999996</v>
-          </cell>
-          <cell r="I169">
-            <v>5</v>
-          </cell>
-          <cell r="J169">
-            <v>0.66600000000000004</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>17</v>
-          </cell>
-          <cell r="C170">
-            <v>-0.62</v>
-          </cell>
-          <cell r="I170">
-            <v>9.5</v>
-          </cell>
-          <cell r="J170">
-            <v>0.66</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>19</v>
-          </cell>
-          <cell r="C171">
-            <v>-0.42099999999999999</v>
-          </cell>
-          <cell r="I171">
-            <v>13.49</v>
-          </cell>
-          <cell r="J171">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>20</v>
-          </cell>
-          <cell r="C172">
-            <v>-0.19500000000000001</v>
-          </cell>
-          <cell r="I172">
-            <v>15.99</v>
-          </cell>
-          <cell r="J172">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>21</v>
-          </cell>
-          <cell r="C173">
-            <v>0.16900000000000001</v>
-          </cell>
-          <cell r="I173">
-            <v>18.490000000000002</v>
-          </cell>
-          <cell r="J173">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>22</v>
-          </cell>
-          <cell r="C174">
-            <v>0.80500000000000005</v>
-          </cell>
-          <cell r="I174">
-            <v>22.69</v>
-          </cell>
-          <cell r="J174">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>27</v>
-          </cell>
-          <cell r="C175">
-            <v>0.8</v>
-          </cell>
-          <cell r="I175">
-            <v>22</v>
-          </cell>
-          <cell r="J175">
-            <v>0.80500000000000005</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>32</v>
-          </cell>
-          <cell r="C176">
-            <v>0.78700000000000003</v>
-          </cell>
-          <cell r="I176">
-            <v>27</v>
-          </cell>
-          <cell r="J176">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>0</v>
-          </cell>
-          <cell r="C179">
-            <v>0.78</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>5</v>
-          </cell>
-          <cell r="C180">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>10</v>
-          </cell>
-          <cell r="C181">
-            <v>0.76200000000000001</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>11</v>
-          </cell>
-          <cell r="C182">
-            <v>0.105</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>12</v>
-          </cell>
-          <cell r="C183">
-            <v>-0.48899999999999999</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>13</v>
-          </cell>
-          <cell r="C184">
-            <v>-0.83099999999999996</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>15</v>
-          </cell>
-          <cell r="C185">
-            <v>-0.93300000000000005</v>
-          </cell>
-          <cell r="I185">
-            <v>0</v>
-          </cell>
-          <cell r="J185">
-            <v>0.78</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>17</v>
-          </cell>
-          <cell r="C186">
-            <v>-0.83</v>
-          </cell>
-          <cell r="I186">
-            <v>5</v>
-          </cell>
-          <cell r="J186">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>18</v>
-          </cell>
-          <cell r="C187">
-            <v>-0.502</v>
-          </cell>
-          <cell r="I187">
-            <v>8.5</v>
-          </cell>
-          <cell r="J187">
-            <v>0.76200000000000001</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>19</v>
-          </cell>
-          <cell r="C188">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="I188">
-            <v>12.643000000000001</v>
-          </cell>
-          <cell r="J188">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>20</v>
-          </cell>
-          <cell r="C189">
-            <v>0.60899999999999999</v>
-          </cell>
-          <cell r="I189">
-            <v>15.143000000000001</v>
-          </cell>
-          <cell r="J189">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>25</v>
-          </cell>
-          <cell r="C190">
-            <v>0.6</v>
-          </cell>
-          <cell r="I190">
-            <v>17.643000000000001</v>
-          </cell>
-          <cell r="J190">
-            <v>-2</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>30</v>
-          </cell>
-          <cell r="C191">
-            <v>0.58599999999999997</v>
-          </cell>
-          <cell r="I191">
-            <v>21.542999999999999</v>
-          </cell>
-          <cell r="J191">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="I192">
-            <v>25</v>
-          </cell>
-          <cell r="J192">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="I193">
-            <v>30</v>
-          </cell>
-          <cell r="J193">
-            <v>0.58599999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -8220,7 +6184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8230,7 +6194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V859"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A142" zoomScale="180" zoomScaleNormal="180" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -8239,7 +6203,7 @@
     <col min="1" max="1" width="1.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="47" customWidth="1"/>
     <col min="5" max="7" width="8.140625" style="21" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" style="21" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" style="21" hidden="1" customWidth="1"/>
@@ -8635,28 +6599,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="A1" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
     </row>
@@ -8685,13 +6649,13 @@
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="23"/>
-      <c r="D3" s="48">
+      <c r="D3" s="61">
         <v>0</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="61"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
@@ -8701,17 +6665,17 @@
       <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
@@ -8724,7 +6688,7 @@
         <v>-1.7470000000000001</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
@@ -8828,7 +6792,7 @@
         <v>0.443</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="42">
         <f t="shared" si="0"/>
@@ -9058,7 +7022,7 @@
         <v>-0.27700000000000002</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="42">
         <f t="shared" si="0"/>
@@ -9283,7 +7247,7 @@
         <v>2.2530000000000001</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="42">
         <f t="shared" si="0"/>
@@ -9360,7 +7324,7 @@
         <v>2.2730000000000001</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E20" s="42">
         <f t="shared" si="0"/>
@@ -9391,16 +7355,16 @@
       <c r="E21" s="44"/>
       <c r="F21" s="43"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="47"/>
+      <c r="H21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="60"/>
       <c r="J21" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L21" s="43" t="e">
         <f>#REF!</f>
@@ -9416,13 +7380,13 @@
     </row>
     <row r="22" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="48">
+      <c r="D22" s="61">
         <v>0.1</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="61"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
@@ -9432,17 +7396,17 @@
       <c r="P22" s="24"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
@@ -9454,8 +7418,8 @@
       <c r="C24" s="27">
         <v>2.355</v>
       </c>
-      <c r="D24" s="51" t="s">
-        <v>116</v>
+      <c r="D24" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
@@ -9515,7 +7479,7 @@
         <v>2.35</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="42">
         <f t="shared" ref="E26:E38" si="8">(C25+C26)/2</f>
@@ -9744,7 +7708,7 @@
         <v>-0.77</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="42">
         <f t="shared" si="8"/>
@@ -9960,7 +7924,7 @@
         <v>0.48</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="42">
         <f t="shared" si="8"/>
@@ -10007,7 +7971,7 @@
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="52"/>
+      <c r="J37" s="48"/>
       <c r="K37" s="42"/>
       <c r="L37" s="43"/>
       <c r="M37" s="42"/>
@@ -10024,7 +7988,7 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E38" s="42">
         <f t="shared" si="8"/>
@@ -10068,13 +8032,13 @@
     </row>
     <row r="40" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="48">
+      <c r="D40" s="61">
         <v>0.2</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="61"/>
       <c r="J40" s="44"/>
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
@@ -10084,22 +8048,22 @@
       <c r="P40" s="35"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
+      <c r="I41" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -10111,8 +8075,8 @@
       <c r="C42" s="27">
         <v>2.3149999999999999</v>
       </c>
-      <c r="D42" s="51" t="s">
-        <v>116</v>
+      <c r="D42" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -10167,7 +8131,7 @@
         <v>2.31</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="42">
         <f t="shared" ref="E44:E55" si="16">(C43+C44)/2</f>
@@ -10296,7 +8260,7 @@
         <v>-0.44900000000000001</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" s="42">
         <f t="shared" si="16"/>
@@ -10513,7 +8477,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="42">
         <f t="shared" si="16"/>
@@ -10608,7 +8572,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E55" s="42">
         <f t="shared" si="16"/>
@@ -10821,13 +8785,13 @@
     </row>
     <row r="63" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C63" s="23"/>
-      <c r="D63" s="48">
+      <c r="D63" s="61">
         <v>0.3</v>
       </c>
-      <c r="E63" s="48"/>
+      <c r="E63" s="61"/>
       <c r="J63" s="44"/>
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
@@ -10837,22 +8801,22 @@
       <c r="P63" s="35"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
       <c r="H64" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I64" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
+      <c r="I64" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
@@ -10864,8 +8828,8 @@
       <c r="C65" s="27">
         <v>2.61</v>
       </c>
-      <c r="D65" s="51" t="s">
-        <v>116</v>
+      <c r="D65" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E65" s="43"/>
       <c r="F65" s="43"/>
@@ -10921,7 +8885,7 @@
         <v>2.605</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="42">
         <f t="shared" ref="E67:E78" si="24">(C66+C67)/2</f>
@@ -11050,7 +9014,7 @@
         <v>-0.51500000000000001</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" s="42">
         <f t="shared" si="24"/>
@@ -11268,7 +9232,7 @@
         <v>0.42</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" s="42">
         <f t="shared" si="24"/>
@@ -11362,7 +9326,7 @@
         <v>0.43</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E78" s="42">
         <f t="shared" si="24"/>
@@ -11434,13 +9398,13 @@
     </row>
     <row r="80" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C80" s="23"/>
-      <c r="D80" s="48">
+      <c r="D80" s="61">
         <v>0.35</v>
       </c>
-      <c r="E80" s="48"/>
+      <c r="E80" s="61"/>
       <c r="J80" s="44"/>
       <c r="K80" s="44"/>
       <c r="L80" s="44"/>
@@ -11456,8 +9420,8 @@
       <c r="C81" s="27">
         <v>2.7349999999999999</v>
       </c>
-      <c r="D81" s="51" t="s">
-        <v>116</v>
+      <c r="D81" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E81" s="43"/>
       <c r="F81" s="43"/>
@@ -11529,7 +9493,7 @@
         <v>2.74</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="42">
         <f t="shared" ref="E83:E94" si="35">(C82+C83)/2</f>
@@ -11713,7 +9677,7 @@
         <v>-0.46</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="42">
         <f t="shared" si="35"/>
@@ -11942,7 +9906,7 @@
         <v>0.49</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" s="42">
         <f t="shared" si="35"/>
@@ -12019,7 +9983,7 @@
         <v>0.5</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E94" s="42">
         <f t="shared" si="35"/>
@@ -12035,7 +9999,7 @@
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="26"/>
-      <c r="J94" s="52"/>
+      <c r="J94" s="48"/>
       <c r="K94" s="42"/>
       <c r="L94" s="43"/>
       <c r="M94" s="42"/>
@@ -12064,13 +10028,13 @@
     </row>
     <row r="96" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C96" s="23"/>
-      <c r="D96" s="48">
+      <c r="D96" s="61">
         <v>0.4</v>
       </c>
-      <c r="E96" s="48"/>
+      <c r="E96" s="61"/>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
       <c r="L96" s="44"/>
@@ -12086,8 +10050,8 @@
       <c r="C97" s="27">
         <v>3.3239000000000001</v>
       </c>
-      <c r="D97" s="51" t="s">
-        <v>116</v>
+      <c r="D97" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E97" s="43"/>
       <c r="F97" s="43"/>
@@ -12142,7 +10106,7 @@
         <v>3.234</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99" s="42">
         <f t="shared" ref="E99:E110" si="40">(C98+C99)/2</f>
@@ -12289,7 +10253,7 @@
         <v>-0.56599999999999995</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="42">
         <f t="shared" si="40"/>
@@ -12519,7 +10483,7 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E108" s="42">
         <f t="shared" si="40"/>
@@ -12611,7 +10575,7 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E110" s="42">
         <f t="shared" si="40"/>
@@ -12682,13 +10646,13 @@
     </row>
     <row r="112" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B112" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C112" s="23"/>
-      <c r="D112" s="48">
+      <c r="D112" s="61">
         <v>0.45</v>
       </c>
-      <c r="E112" s="48"/>
+      <c r="E112" s="61"/>
       <c r="J112" s="44"/>
       <c r="K112" s="44"/>
       <c r="L112" s="44"/>
@@ -12704,8 +10668,8 @@
       <c r="C113" s="27">
         <v>2.794</v>
       </c>
-      <c r="D113" s="51" t="s">
-        <v>116</v>
+      <c r="D113" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E113" s="43"/>
       <c r="F113" s="43"/>
@@ -12778,7 +10742,7 @@
         <v>2.8039999999999998</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115" s="42">
         <f t="shared" ref="E115:E126" si="51">(C114+C115)/2</f>
@@ -12962,7 +10926,7 @@
         <v>-0.497</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="42">
         <f t="shared" si="51"/>
@@ -13190,7 +11154,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E124" s="42">
         <f t="shared" si="51"/>
@@ -13281,7 +11245,7 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E126" s="42">
         <f t="shared" si="51"/>
@@ -13297,7 +11261,7 @@
       </c>
       <c r="H126" s="23"/>
       <c r="I126" s="26"/>
-      <c r="J126" s="52"/>
+      <c r="J126" s="48"/>
       <c r="K126" s="42"/>
       <c r="L126" s="43"/>
       <c r="M126" s="42"/>
@@ -13325,13 +11289,13 @@
     </row>
     <row r="128" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B128" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C128" s="23"/>
-      <c r="D128" s="48">
+      <c r="D128" s="61">
         <v>0.5</v>
       </c>
-      <c r="E128" s="48"/>
+      <c r="E128" s="61"/>
       <c r="J128" s="44"/>
       <c r="K128" s="44"/>
       <c r="L128" s="44"/>
@@ -13341,17 +11305,17 @@
       <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="49"/>
-      <c r="C129" s="49"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="49"/>
-      <c r="I129" s="49"/>
-      <c r="J129" s="49"/>
-      <c r="K129" s="49"/>
-      <c r="L129" s="49"/>
-      <c r="M129" s="49"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+      <c r="L129" s="62"/>
+      <c r="M129" s="62"/>
       <c r="N129" s="25"/>
       <c r="O129" s="25"/>
       <c r="P129" s="30"/>
@@ -13363,8 +11327,8 @@
       <c r="C130" s="27">
         <v>2.7850000000000001</v>
       </c>
-      <c r="D130" s="51" t="s">
-        <v>116</v>
+      <c r="D130" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E130" s="43"/>
       <c r="F130" s="43"/>
@@ -13420,7 +11384,7 @@
         <v>2.78</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E132" s="42">
         <f t="shared" ref="E132:E143" si="56">(C131+C132)/2</f>
@@ -13518,7 +11482,7 @@
         <v>-0.41499999999999998</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E135" s="42">
         <f t="shared" si="56"/>
@@ -13676,7 +11640,7 @@
         <v>-7.0999999999999994E-2</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E139" s="42">
         <f t="shared" si="56"/>
@@ -13860,7 +11824,7 @@
         <v>-0.76700000000000002</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E143" s="42">
         <f t="shared" si="56"/>
@@ -13932,13 +11896,13 @@
     </row>
     <row r="145" spans="2:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B145" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C145" s="23"/>
-      <c r="D145" s="48">
+      <c r="D145" s="61">
         <v>0.60499999999999998</v>
       </c>
-      <c r="E145" s="48"/>
+      <c r="E145" s="61"/>
       <c r="J145" s="44"/>
       <c r="K145" s="44"/>
       <c r="L145" s="44"/>
@@ -13948,17 +11912,17 @@
       <c r="P145" s="24"/>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="49"/>
-      <c r="C146" s="49"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="49"/>
-      <c r="I146" s="49"/>
-      <c r="J146" s="49"/>
-      <c r="K146" s="49"/>
-      <c r="L146" s="49"/>
-      <c r="M146" s="49"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="62"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="62"/>
+      <c r="K146" s="62"/>
+      <c r="L146" s="62"/>
+      <c r="M146" s="62"/>
       <c r="N146" s="25"/>
       <c r="O146" s="25"/>
       <c r="P146" s="30"/>
@@ -13971,7 +11935,7 @@
         <v>2.6019999999999999</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E147" s="43"/>
       <c r="F147" s="43"/>
@@ -14027,7 +11991,7 @@
         <v>2.617</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E149" s="42">
         <f t="shared" ref="E149:E158" si="64">(C148+C149)/2</f>
@@ -14124,7 +12088,7 @@
         <v>-0.23300000000000001</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E152" s="42">
         <f t="shared" si="64"/>
@@ -14269,7 +12233,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E156" s="42">
         <f t="shared" si="64"/>
@@ -14360,7 +12324,7 @@
         <v>0.159</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E158" s="42">
         <f t="shared" si="64"/>
@@ -14585,82 +12549,82 @@
       <c r="P165" s="24"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B166" s="53"/>
-      <c r="C166" s="54"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="55"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="55"/>
-      <c r="H166" s="57"/>
-      <c r="I166" s="53"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="55"/>
-      <c r="L166" s="56"/>
-      <c r="M166" s="55"/>
-      <c r="N166" s="57"/>
-      <c r="O166" s="58"/>
-      <c r="P166" s="58"/>
-      <c r="Q166" s="57"/>
+      <c r="B166" s="49"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="53"/>
+      <c r="I166" s="49"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="52"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="53"/>
+      <c r="O166" s="54"/>
+      <c r="P166" s="54"/>
+      <c r="Q166" s="53"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B167" s="53"/>
-      <c r="C167" s="54"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="55"/>
-      <c r="H167" s="57"/>
-      <c r="I167" s="53"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="55"/>
-      <c r="L167" s="56"/>
-      <c r="M167" s="55"/>
-      <c r="N167" s="58"/>
-      <c r="O167" s="58"/>
-      <c r="P167" s="58"/>
-      <c r="Q167" s="57"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="51"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="51"/>
+      <c r="H167" s="53"/>
+      <c r="I167" s="49"/>
+      <c r="J167" s="49"/>
+      <c r="K167" s="51"/>
+      <c r="L167" s="52"/>
+      <c r="M167" s="51"/>
+      <c r="N167" s="54"/>
+      <c r="O167" s="54"/>
+      <c r="P167" s="54"/>
+      <c r="Q167" s="53"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B168" s="53"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="55"/>
-      <c r="F168" s="56"/>
-      <c r="G168" s="55"/>
-      <c r="H168" s="57"/>
-      <c r="I168" s="53"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="55"/>
-      <c r="L168" s="56"/>
-      <c r="M168" s="55"/>
-      <c r="N168" s="58"/>
-      <c r="O168" s="58"/>
-      <c r="P168" s="58"/>
-      <c r="Q168" s="57"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="51"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="53"/>
+      <c r="I168" s="49"/>
+      <c r="J168" s="49"/>
+      <c r="K168" s="51"/>
+      <c r="L168" s="52"/>
+      <c r="M168" s="51"/>
+      <c r="N168" s="54"/>
+      <c r="O168" s="54"/>
+      <c r="P168" s="54"/>
+      <c r="Q168" s="53"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B169" s="53"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="56"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="57"/>
-      <c r="I169" s="53"/>
-      <c r="J169" s="53"/>
-      <c r="K169" s="55"/>
-      <c r="L169" s="56"/>
-      <c r="M169" s="55"/>
-      <c r="N169" s="58"/>
-      <c r="O169" s="58"/>
-      <c r="P169" s="58"/>
-      <c r="Q169" s="57"/>
+      <c r="B169" s="49"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="53"/>
+      <c r="I169" s="49"/>
+      <c r="J169" s="49"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="52"/>
+      <c r="M169" s="51"/>
+      <c r="N169" s="54"/>
+      <c r="O169" s="54"/>
+      <c r="P169" s="54"/>
+      <c r="Q169" s="53"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B170" s="53"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="55"/>
+      <c r="B170" s="49"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="51"/>
       <c r="F170" s="43"/>
       <c r="G170" s="42"/>
       <c r="H170" s="42"/>
@@ -14669,16 +12633,16 @@
       <c r="K170" s="42"/>
       <c r="L170" s="43"/>
       <c r="M170" s="42"/>
-      <c r="N170" s="58"/>
-      <c r="O170" s="58"/>
-      <c r="P170" s="58"/>
-      <c r="Q170" s="57"/>
+      <c r="N170" s="54"/>
+      <c r="O170" s="54"/>
+      <c r="P170" s="54"/>
+      <c r="Q170" s="53"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B171" s="53"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="55"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="51"/>
       <c r="F171" s="43">
         <f>SUM(F147:F170)</f>
         <v>25</v>
@@ -14699,45 +12663,45 @@
         <f>SUM(M148:M170)</f>
         <v>3.0071537500000014</v>
       </c>
-      <c r="N171" s="59"/>
-      <c r="O171" s="58"/>
-      <c r="P171" s="58"/>
-      <c r="Q171" s="57"/>
+      <c r="N171" s="55"/>
+      <c r="O171" s="54"/>
+      <c r="P171" s="54"/>
+      <c r="Q171" s="53"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B172" s="53"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="56"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
-      <c r="I172" s="53"/>
-      <c r="J172" s="53"/>
-      <c r="K172" s="55"/>
-      <c r="L172" s="56"/>
-      <c r="M172" s="55"/>
-      <c r="N172" s="60"/>
-      <c r="O172" s="60"/>
-      <c r="P172" s="60"/>
-      <c r="Q172" s="57"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="49"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="52"/>
+      <c r="M172" s="51"/>
+      <c r="N172" s="56"/>
+      <c r="O172" s="56"/>
+      <c r="P172" s="56"/>
+      <c r="Q172" s="53"/>
       <c r="R172" s="31"/>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B173" s="53"/>
-      <c r="C173" s="54"/>
-      <c r="D173" s="54"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G173" s="47"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="51"/>
+      <c r="F173" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G173" s="60"/>
       <c r="H173" s="42">
         <f>G171</f>
         <v>17.199399999999997</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J173" s="43">
         <f>M171</f>
@@ -14747,75 +12711,75 @@
         <f>H173-J173</f>
         <v>14.192246249999997</v>
       </c>
-      <c r="L173" s="56"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="60"/>
-      <c r="O173" s="60"/>
-      <c r="P173" s="60"/>
-      <c r="Q173" s="57"/>
+      <c r="L173" s="52"/>
+      <c r="M173" s="51"/>
+      <c r="N173" s="56"/>
+      <c r="O173" s="56"/>
+      <c r="P173" s="56"/>
+      <c r="Q173" s="53"/>
       <c r="R173" s="31"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B174" s="53"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="55"/>
-      <c r="I174" s="55"/>
-      <c r="J174" s="53"/>
-      <c r="K174" s="55"/>
-      <c r="L174" s="56"/>
-      <c r="M174" s="55"/>
-      <c r="N174" s="60"/>
-      <c r="O174" s="60"/>
-      <c r="P174" s="60"/>
-      <c r="Q174" s="57"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="51"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="51"/>
+      <c r="I174" s="51"/>
+      <c r="J174" s="49"/>
+      <c r="K174" s="51"/>
+      <c r="L174" s="52"/>
+      <c r="M174" s="51"/>
+      <c r="N174" s="56"/>
+      <c r="O174" s="56"/>
+      <c r="P174" s="56"/>
+      <c r="Q174" s="53"/>
       <c r="R174" s="31"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B175" s="53"/>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="60"/>
-      <c r="H175" s="60"/>
-      <c r="I175" s="57"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="51"/>
+      <c r="F175" s="56"/>
+      <c r="G175" s="56"/>
+      <c r="H175" s="56"/>
+      <c r="I175" s="53"/>
       <c r="J175" s="31"/>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="53"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="60"/>
-      <c r="I176" s="57"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="56"/>
+      <c r="G176" s="56"/>
+      <c r="H176" s="56"/>
+      <c r="I176" s="53"/>
       <c r="J176" s="31"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B177" s="61"/>
-      <c r="C177" s="62"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="57"/>
-      <c r="I177" s="57"/>
+      <c r="B177" s="57"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="59"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="53"/>
+      <c r="H177" s="53"/>
+      <c r="I177" s="53"/>
       <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B178" s="61"/>
-      <c r="C178" s="62"/>
-      <c r="D178" s="63"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="57"/>
-      <c r="H178" s="57"/>
-      <c r="I178" s="57"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="59"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="53"/>
+      <c r="I178" s="53"/>
       <c r="J178" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.2">
@@ -18822,16 +16786,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="I129:M129"/>
     <mergeCell ref="B146:G146"/>
     <mergeCell ref="I146:M146"/>
     <mergeCell ref="F173:G173"/>
@@ -18846,6 +16800,16 @@
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="I129:M129"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -18881,15 +16845,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -18901,7 +16865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -18941,25 +16905,25 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -18974,10 +16938,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3">
         <v>0.40200000000000002</v>
@@ -18997,7 +16961,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -19012,10 +16976,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H3" s="3">
         <v>0.40200000000000002</v>
@@ -19035,7 +16999,7 @@
     </row>
     <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -19050,10 +17014,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3">
         <v>0.40200000000000002</v>
@@ -19073,7 +17037,7 @@
     </row>
     <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -19088,10 +17052,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3">
         <v>0.40200000000000002</v>
@@ -19111,7 +17075,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3">
         <v>350</v>
@@ -19126,10 +17090,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H6" s="3">
         <v>0.40200000000000002</v>
@@ -19149,7 +17113,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3">
         <v>400</v>
@@ -19164,10 +17128,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H7" s="3">
         <v>0.40200000000000002</v>
@@ -19187,7 +17151,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3">
         <v>450</v>
@@ -19202,10 +17166,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H8" s="3">
         <v>0.40200000000000002</v>
@@ -19225,7 +17189,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B9" s="37">
         <v>500</v>
@@ -19240,10 +17204,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H9" s="3">
         <v>0.40200000000000002</v>
@@ -19263,7 +17227,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B10" s="37">
         <v>605</v>
@@ -19278,10 +17242,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3">
         <v>0.40200000000000002</v>
@@ -19372,7 +17336,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19398,7 +17362,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>12</v>
@@ -19415,7 +17379,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6">
         <v>-1.6</v>
@@ -19430,13 +17394,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>107</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -19462,18 +17426,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -19481,7 +17445,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -19489,7 +17453,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -19497,7 +17461,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -19505,15 +17469,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -19521,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -19529,7 +17493,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -19537,7 +17501,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19545,7 +17509,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -19553,7 +17517,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19561,7 +17525,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -19569,7 +17533,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -19577,7 +17541,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -19585,7 +17549,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19593,7 +17557,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19601,7 +17565,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19609,7 +17573,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19617,7 +17581,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19625,7 +17589,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19633,7 +17597,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -19641,7 +17605,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -19649,7 +17613,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -19662,8 +17626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19675,82 +17639,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -19787,18 +17751,18 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19806,7 +17770,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19814,7 +17778,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19822,7 +17786,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19830,7 +17794,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -19838,7 +17802,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -19846,7 +17810,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -19854,7 +17818,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19862,10 +17826,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -19873,7 +17837,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19881,7 +17845,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19889,7 +17853,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19897,7 +17861,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -19905,31 +17869,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19937,7 +17901,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19945,7 +17909,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -19953,15 +17917,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19969,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19977,7 +17941,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19985,7 +17949,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19993,7 +17957,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20001,7 +17965,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20009,7 +17973,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
